--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/daniel_appenmaier_sap_com/Documents/TEMP/Java II 2022 Q3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140E9A4A-6D55-452A-AB41-90B2206C5A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D7490-A63A-4FFC-9974-A4CA229922F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
@@ -837,15 +837,9 @@
     <t>tablelamp.v7.Demo36.java</t>
   </si>
   <si>
-    <t>tablelamp.v8.Demo38.java</t>
-  </si>
-  <si>
     <t>Demo39.java</t>
   </si>
   <si>
-    <t>tablelamp.v9.Demo40.java</t>
-  </si>
-  <si>
     <t>Exceptions01</t>
   </si>
   <si>
@@ -858,9 +852,6 @@
     <t>Interfaces01</t>
   </si>
   <si>
-    <t>AbstractAndFinal01</t>
-  </si>
-  <si>
     <t>Comparators01</t>
   </si>
   <si>
@@ -1174,6 +1165,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>tablelamp.v9.Demo38.java</t>
+  </si>
+  <si>
+    <t>tablelamp.v10.Demo40.java</t>
+  </si>
+  <si>
+    <t>AbstractAndFinal01 (vehicle.v6)</t>
   </si>
 </sst>
 </file>
@@ -1359,16 +1359,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,7 +1374,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,10 +1784,10 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A99" sqref="A99:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1822,8 +1822,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>267</v>
+      <c r="A2" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1832,7 +1832,7 @@
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
@@ -1840,7 +1840,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
@@ -1856,8 +1856,8 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>268</v>
+      <c r="A6" s="21" t="s">
+        <v>265</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>53</v>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="15" t="s">
         <v>120</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>269</v>
+      <c r="A9" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>125</v>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>121</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
         <v>122</v>
       </c>
@@ -1936,7 +1936,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>123</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="15" t="s">
         <v>124</v>
       </c>
@@ -1966,8 +1966,8 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>270</v>
+      <c r="A15" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>127</v>
@@ -1984,11 +1984,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="16"/>
@@ -1998,11 +1998,11 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="16"/>
@@ -2010,8 +2010,8 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="22"/>
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="16"/>
@@ -2027,8 +2027,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>271</v>
+      <c r="A20" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>129</v>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2069,7 +2069,7 @@
       <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2087,7 +2087,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="16" t="s">
         <v>130</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="16" t="s">
         <v>131</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="15" t="s">
         <v>134</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>133</v>
       </c>
@@ -2179,7 +2179,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3"/>
       <c r="C31" s="16" t="s">
         <v>37</v>
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3"/>
       <c r="C32" s="16" t="s">
         <v>39</v>
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3"/>
       <c r="C33" s="16" t="s">
         <v>40</v>
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3"/>
       <c r="C34" s="16" t="s">
         <v>41</v>
@@ -2261,7 +2261,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="24"/>
       <c r="C35" s="16" t="s">
         <v>42</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="24"/>
       <c r="C36" s="16" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
@@ -2297,7 +2297,7 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
@@ -2307,7 +2307,7 @@
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
@@ -2317,7 +2317,7 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
@@ -2327,7 +2327,7 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
@@ -2337,7 +2337,7 @@
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="s">
@@ -2347,7 +2347,7 @@
       <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
@@ -2357,7 +2357,7 @@
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
@@ -2367,7 +2367,7 @@
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
@@ -2377,7 +2377,7 @@
       <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
@@ -2387,7 +2387,7 @@
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
@@ -2397,7 +2397,7 @@
       <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
@@ -2407,7 +2407,7 @@
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
@@ -2417,7 +2417,7 @@
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
@@ -2435,8 +2435,8 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>272</v>
+      <c r="A52" s="21" t="s">
+        <v>269</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>138</v>
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="15" t="s">
         <v>135</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="15" t="s">
         <v>137</v>
       </c>
@@ -2509,12 +2509,12 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>157</v>
@@ -2527,11 +2527,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
@@ -2587,7 +2587,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2605,82 +2605,82 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>159</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="16" t="s">
         <v>161</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>173</v>
@@ -2695,62 +2695,62 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D74" s="9"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -2763,62 +2763,62 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="9"/>
       <c r="C79" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="9"/>
       <c r="C80" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="9"/>
       <c r="C81" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="9"/>
       <c r="C82" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="9"/>
       <c r="C83" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -2831,107 +2831,107 @@
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>274</v>
+      <c r="A85" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="16" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="25"/>
       <c r="C92" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="9"/>
       <c r="D93" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="9"/>
       <c r="C94" s="3"/>
       <c r="D94" s="16" t="s">
@@ -2939,20 +2939,20 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="C95" s="3"/>
       <c r="D95" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="D96" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="D97" s="16" t="s">
         <v>190</v>
       </c>
@@ -2966,43 +2966,43 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
-        <v>275</v>
+      <c r="A99" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="9"/>
       <c r="C101" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="9"/>
       <c r="D102" s="16" t="s">
         <v>191</v>
@@ -3017,24 +3017,24 @@
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="28"/>
+      <c r="B105" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D105" s="8"/>
     </row>
@@ -3047,101 +3047,101 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="8" t="s">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="21"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="9"/>
       <c r="C111" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="21"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
+      <c r="A114" s="27"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="21"/>
+      <c r="A115" s="27"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="21"/>
+      <c r="A116" s="27"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3153,159 +3153,159 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="21"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
+      <c r="A121" s="27"/>
       <c r="B121" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
+      <c r="A122" s="27"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
+      <c r="A123" s="27"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
+      <c r="A125" s="27"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
+      <c r="A128" s="27"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
+      <c r="A129" s="27"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
+      <c r="A130" s="27"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
+      <c r="A131" s="27"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
+      <c r="A132" s="27"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
+      <c r="A133" s="27"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
+      <c r="A134" s="27"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
+      <c r="A135" s="27"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3318,13 +3318,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3337,64 +3337,64 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="22" t="s">
-        <v>256</v>
+      <c r="A139" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="B139" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="25"/>
+      <c r="B140" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="25"/>
+      <c r="B141" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="25"/>
+      <c r="B142" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="25"/>
+      <c r="B143" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="22"/>
-      <c r="B141" s="16" t="s">
+      <c r="C143" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="25"/>
+      <c r="B144" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="22"/>
-      <c r="B142" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="22"/>
-      <c r="B143" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="22"/>
-      <c r="B144" s="16" t="s">
+      <c r="C144" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>307</v>
       </c>
       <c r="D144" s="8"/>
     </row>
@@ -3407,79 +3407,89 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B146" s="8" t="s">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="25"/>
+      <c r="B147" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="25"/>
+      <c r="B148" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D146" s="8" t="s">
+      <c r="C148" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="22"/>
-      <c r="B147" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D147" s="8" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="25"/>
+      <c r="B149" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="25"/>
+      <c r="B150" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="22"/>
-      <c r="B148" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="22"/>
-      <c r="B149" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="22"/>
-      <c r="B150" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
+      <c r="A151" s="25"/>
       <c r="B151" s="8"/>
       <c r="C151" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A118:A135"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3487,16 +3497,6 @@
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A25:A50"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A118:A135"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D7490-A63A-4FFC-9974-A4CA229922F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD40D6-3DEE-4006-A915-72A3DFA8C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Quellcode" sheetId="1" r:id="rId1"/>
@@ -1362,6 +1362,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1372,18 +1384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1784,24 +1784,24 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99:A102"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="41.5546875" style="2"/>
+    <col min="1" max="1" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="41.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1821,8 +1821,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>264</v>
       </c>
       <c r="B2" s="3"/>
@@ -1831,23 +1831,23 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1855,8 +1855,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>265</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1873,8 +1873,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>120</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1893,8 +1893,8 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>266</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -1911,8 +1911,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
         <v>121</v>
       </c>
@@ -1923,8 +1923,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>122</v>
       </c>
@@ -1935,8 +1935,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
         <v>123</v>
       </c>
@@ -1947,8 +1947,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="15" t="s">
         <v>124</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="6"/>
@@ -1965,8 +1965,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1983,8 +1983,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
       <c r="B16" s="16" t="s">
         <v>126</v>
       </c>
@@ -1997,8 +1997,8 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="16" t="s">
         <v>54</v>
       </c>
@@ -2009,8 +2009,8 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
       <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="6"/>
       <c r="C19" s="19"/>
@@ -2026,8 +2026,8 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2044,8 +2044,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2058,8 +2058,8 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2068,8 +2068,8 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2086,8 +2086,8 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2106,8 +2106,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
       <c r="B26" s="16" t="s">
         <v>130</v>
       </c>
@@ -2124,8 +2124,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
       <c r="B27" s="16" t="s">
         <v>131</v>
       </c>
@@ -2142,8 +2142,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
       <c r="B28" s="15" t="s">
         <v>134</v>
       </c>
@@ -2160,8 +2160,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
       <c r="B29" s="15" t="s">
         <v>133</v>
       </c>
@@ -2178,8 +2178,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
       <c r="B30" s="16" t="s">
         <v>55</v>
       </c>
@@ -2196,8 +2196,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
       <c r="B31" s="3"/>
       <c r="C31" s="16" t="s">
         <v>37</v>
@@ -2212,8 +2212,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="16" t="s">
         <v>39</v>
@@ -2228,8 +2228,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
       <c r="B33" s="3"/>
       <c r="C33" s="16" t="s">
         <v>40</v>
@@ -2244,8 +2244,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
       <c r="B34" s="3"/>
       <c r="C34" s="16" t="s">
         <v>41</v>
@@ -2260,8 +2260,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
       <c r="C35" s="16" t="s">
         <v>42</v>
       </c>
@@ -2273,8 +2273,8 @@
       </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
       <c r="C36" s="16" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2286,8 @@
       </c>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
@@ -2296,8 +2296,8 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
@@ -2306,8 +2306,8 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
@@ -2316,8 +2316,8 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16" t="s">
@@ -2326,8 +2326,8 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16" t="s">
@@ -2336,8 +2336,8 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16" t="s">
@@ -2346,8 +2346,8 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
@@ -2356,8 +2356,8 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
@@ -2366,8 +2366,8 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16" t="s">
@@ -2376,8 +2376,8 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
@@ -2386,8 +2386,8 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16" t="s">
@@ -2396,8 +2396,8 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="s">
@@ -2406,8 +2406,8 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
@@ -2416,8 +2416,8 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
@@ -2426,7 +2426,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="6"/>
@@ -2434,8 +2434,8 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>269</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -2454,8 +2454,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
       <c r="B53" s="15" t="s">
         <v>135</v>
       </c>
@@ -2472,8 +2472,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
       <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
@@ -2490,8 +2490,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
       <c r="B55" s="15" t="s">
         <v>137</v>
       </c>
@@ -2508,8 +2508,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
@@ -2526,8 +2526,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
       <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
@@ -2544,8 +2544,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
@@ -2558,8 +2558,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
@@ -2572,8 +2572,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
@@ -2586,8 +2586,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -2596,7 +2596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2604,8 +2604,8 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -2618,8 +2618,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
       <c r="B64" s="16" t="s">
         <v>160</v>
       </c>
@@ -2630,8 +2630,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
       <c r="B65" s="16" t="s">
         <v>163</v>
       </c>
@@ -2642,8 +2642,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
       <c r="B66" s="16" t="s">
         <v>161</v>
       </c>
@@ -2654,8 +2654,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
       <c r="B67" s="16" t="s">
         <v>162</v>
       </c>
@@ -2666,8 +2666,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
         <v>278</v>
@@ -2676,8 +2676,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16" t="s">
         <v>279</v>
@@ -2686,7 +2686,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2694,8 +2694,8 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="16" t="s">
@@ -2708,8 +2708,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
       <c r="B72" s="16" t="s">
         <v>164</v>
       </c>
@@ -2720,8 +2720,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
       <c r="B73" s="16" t="s">
         <v>67</v>
       </c>
@@ -2730,31 +2730,31 @@
       </c>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
         <v>284</v>
       </c>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2762,8 +2762,8 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="9"/>
@@ -2774,8 +2774,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
       <c r="B79" s="9"/>
       <c r="C79" s="16" t="s">
         <v>291</v>
@@ -2784,8 +2784,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
       <c r="B80" s="9"/>
       <c r="C80" s="16" t="s">
         <v>292</v>
@@ -2794,8 +2794,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
       <c r="B81" s="9"/>
       <c r="C81" s="16" t="s">
         <v>293</v>
@@ -2804,8 +2804,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
       <c r="B82" s="9"/>
       <c r="C82" s="16" t="s">
         <v>294</v>
@@ -2814,15 +2814,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
       <c r="B83" s="9"/>
       <c r="C83" s="16" t="s">
         <v>295</v>
       </c>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2830,8 +2830,8 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="16" t="s">
@@ -2844,8 +2844,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
       <c r="B86" s="16" t="s">
         <v>166</v>
       </c>
@@ -2856,8 +2856,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
       <c r="B87" s="16" t="s">
         <v>193</v>
       </c>
@@ -2868,8 +2868,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
       <c r="B88" s="16" t="s">
         <v>194</v>
       </c>
@@ -2880,8 +2880,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
       <c r="B89" s="16" t="s">
         <v>192</v>
       </c>
@@ -2892,8 +2892,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
       <c r="B90" s="16" t="s">
         <v>305</v>
       </c>
@@ -2904,8 +2904,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16" t="s">
         <v>200</v>
@@ -2914,8 +2914,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
       <c r="C92" s="3" t="s">
         <v>201</v>
       </c>
@@ -2923,41 +2923,41 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
       <c r="B93" s="9"/>
       <c r="D93" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
       <c r="B94" s="9"/>
       <c r="C94" s="3"/>
       <c r="D94" s="16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
       <c r="C95" s="3"/>
       <c r="D95" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
       <c r="D96" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="25"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
       <c r="D97" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2965,8 +2965,8 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
         <v>272</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -2979,8 +2979,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
       <c r="B100" s="3" t="s">
         <v>306</v>
       </c>
@@ -2991,8 +2991,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
       <c r="B101" s="9"/>
       <c r="C101" s="3" t="s">
         <v>198</v>
@@ -3001,14 +3001,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
       <c r="B102" s="9"/>
       <c r="D102" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3016,8 +3016,8 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
         <v>202</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -3028,8 +3028,8 @@
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
       <c r="B105" s="8" t="s">
         <v>205</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3046,8 +3046,8 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
         <v>207</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -3060,8 +3060,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
       <c r="B108" s="8" t="s">
         <v>209</v>
       </c>
@@ -3072,8 +3072,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
       <c r="B109" s="9" t="s">
         <v>213</v>
       </c>
@@ -3084,8 +3084,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="27"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8" t="s">
         <v>216</v>
@@ -3094,8 +3094,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
       <c r="B111" s="9"/>
       <c r="C111" s="8" t="s">
         <v>217</v>
@@ -3104,47 +3104,47 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="27"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="27"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="22"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3152,8 +3152,8 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B118" s="8" t="s">
@@ -3166,8 +3166,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
       <c r="B119" s="3" t="s">
         <v>228</v>
       </c>
@@ -3176,8 +3176,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
       <c r="B120" s="8" t="s">
         <v>248</v>
       </c>
@@ -3186,8 +3186,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
       <c r="B121" s="8" t="s">
         <v>249</v>
       </c>
@@ -3196,119 +3196,119 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="27"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="27"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="22"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="27"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="27"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="27"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="27"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="22"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="27"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="22"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="27"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="27"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="27"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="27"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="27"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="27"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3316,7 +3316,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>250</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D137" s="12"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3336,8 +3336,8 @@
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="25" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
         <v>253</v>
       </c>
       <c r="B139" s="16" t="s">
@@ -3348,8 +3348,8 @@
       </c>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="25"/>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="23"/>
       <c r="B140" s="16" t="s">
         <v>296</v>
       </c>
@@ -3358,8 +3358,8 @@
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="25"/>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="23"/>
       <c r="B141" s="16" t="s">
         <v>298</v>
       </c>
@@ -3368,8 +3368,8 @@
       </c>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="25"/>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="23"/>
       <c r="B142" s="16" t="s">
         <v>299</v>
       </c>
@@ -3378,8 +3378,8 @@
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="25"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="23"/>
       <c r="B143" s="16" t="s">
         <v>300</v>
       </c>
@@ -3388,8 +3388,8 @@
       </c>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="25"/>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="23"/>
       <c r="B144" s="16" t="s">
         <v>301</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3406,8 +3406,8 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="25" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
         <v>254</v>
       </c>
       <c r="B146" s="8" t="s">
@@ -3420,8 +3420,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="25"/>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
       <c r="B147" s="8" t="s">
         <v>256</v>
       </c>
@@ -3432,8 +3432,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="25"/>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="23"/>
       <c r="B148" s="8" t="s">
         <v>258</v>
       </c>
@@ -3444,8 +3444,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="25"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="23"/>
       <c r="B149" s="16" t="s">
         <v>302</v>
       </c>
@@ -3456,8 +3456,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="25"/>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="23"/>
       <c r="B150" s="16" t="s">
         <v>303</v>
       </c>
@@ -3468,8 +3468,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="25"/>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="23"/>
       <c r="B151" s="8"/>
       <c r="C151" s="13" t="s">
         <v>304</v>
@@ -3480,16 +3480,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A118:A135"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3497,6 +3487,16 @@
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A25:A50"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A118:A135"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/daniel_appenmaier_sap_com/Documents/TEMP/Java II 2022 Q3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1598" documentId="13_ncr:1_{A220C5BC-8D66-46B4-9036-11DC124DFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC77E62-DE41-46FA-B971-D0A91F5E3F55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C2DE8-8D47-465E-B962-A7E4C42A2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
@@ -221,7 +221,7 @@
     ohne java.nio.file.Files</t>
       </text>
     </comment>
-    <comment ref="D145" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+    <comment ref="D146" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +229,7 @@
     distance(String, String)</t>
       </text>
     </comment>
-    <comment ref="D146" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+    <comment ref="D147" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +237,7 @@
     writeZielcode(String, File)</t>
       </text>
     </comment>
-    <comment ref="D147" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+    <comment ref="D148" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Darstellung von Klassen und Programmabläufen</t>
   </si>
@@ -366,24 +366,6 @@
     <t>Fehlerbehandlung</t>
   </si>
   <si>
-    <t>javafx.v2.Demo51.java</t>
-  </si>
-  <si>
-    <t>javafx.v1.Demo50.java</t>
-  </si>
-  <si>
-    <t>javafx.v3.Demo52.java</t>
-  </si>
-  <si>
-    <t>javafx.v4.Demo53.java</t>
-  </si>
-  <si>
-    <t>javafx.v5.Demo54.java</t>
-  </si>
-  <si>
-    <t>javafx.v6.Demo55.java</t>
-  </si>
-  <si>
     <t>ClassStructure1.java</t>
   </si>
   <si>
@@ -519,12 +501,6 @@
     <t>JavaStreamAPI02.java, helpers.*</t>
   </si>
   <si>
-    <t>JavaStreamAPI03.java, helpers.*</t>
-  </si>
-  <si>
-    <t>JavaStreamAPI04.java, helpers.*</t>
-  </si>
-  <si>
     <t>MainMethod01.java</t>
   </si>
   <si>
@@ -678,24 +654,6 @@
     <t>helpers.*, tests.*</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>IOStreams01.java</t>
-  </si>
-  <si>
-    <t>IOStreams02.java</t>
-  </si>
-  <si>
-    <t>IOStreams03.java</t>
-  </si>
-  <si>
-    <t>IOStreams04.java, log.v1.*</t>
-  </si>
-  <si>
-    <t>IOStreams05.java, log.v2.*</t>
-  </si>
-  <si>
     <t>ExerciseIntro111.txt</t>
   </si>
   <si>
@@ -1158,10 +1116,79 @@
     <t>ExerciseIOStreams116.java</t>
   </si>
   <si>
-    <t>ExerciseIOStreams132.txt</t>
-  </si>
-  <si>
-    <t>ExerciseIOStreams133.java</t>
+    <t>EventHandling01</t>
+  </si>
+  <si>
+    <t>JavaStreamAPI03</t>
+  </si>
+  <si>
+    <t>JavaStreamAPI04</t>
+  </si>
+  <si>
+    <t>ExerciseIOStreams132</t>
+  </si>
+  <si>
+    <t>ExerciseIOStreams133</t>
+  </si>
+  <si>
+    <t>IOStreams01</t>
+  </si>
+  <si>
+    <t>IOStreams02</t>
+  </si>
+  <si>
+    <t>IOStreams03</t>
+  </si>
+  <si>
+    <t>IOStreams04</t>
+  </si>
+  <si>
+    <t>IOStreams05</t>
+  </si>
+  <si>
+    <t>Model01</t>
+  </si>
+  <si>
+    <t>Model02</t>
+  </si>
+  <si>
+    <t>EventHandling02</t>
+  </si>
+  <si>
+    <t>EventHandling03</t>
+  </si>
+  <si>
+    <t>UnitTests02</t>
+  </si>
+  <si>
+    <t>JavaFX01</t>
+  </si>
+  <si>
+    <t>JavaFX02</t>
+  </si>
+  <si>
+    <t>JavaFX03</t>
+  </si>
+  <si>
+    <t>JavaFX04</t>
+  </si>
+  <si>
+    <t>JavaFX05</t>
+  </si>
+  <si>
+    <t>JavaFX06</t>
+  </si>
+  <si>
+    <t>WritersAndReaders01</t>
+  </si>
+  <si>
+    <t>WritersAndReaders02</t>
+  </si>
+  <si>
+    <t>WritersAndReaders03</t>
+  </si>
+  <si>
+    <t>Serialization01</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,12 +1246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,9 +1356,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,7 +1380,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,6 +1395,27 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1387,18 +1426,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1782,13 +1809,13 @@
   <threadedComment ref="D99" dT="2022-02-18T06:25:58.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{329EFAD7-6F17-41FB-8809-9C50FB701B6A}">
     <text>ohne java.nio.file.Files</text>
   </threadedComment>
-  <threadedComment ref="D145" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+  <threadedComment ref="D146" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
     <text>distance(String, String)</text>
   </threadedComment>
-  <threadedComment ref="D146" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+  <threadedComment ref="D147" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
     <text>writeZielcode(String, File)</text>
   </threadedComment>
-  <threadedComment ref="D147" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+  <threadedComment ref="D148" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
     <text>convertFileToLowerCase(String, String)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1796,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D9D064-B462-4559-9DAC-1D03D3C957D4}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1837,35 +1864,35 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
@@ -1873,34 +1900,34 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>229</v>
+      <c r="B6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1908,190 +1935,190 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>228</v>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>227</v>
+      <c r="A10" s="33"/>
+      <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>226</v>
+      <c r="A11" s="33"/>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>225</v>
+      <c r="A12" s="33"/>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>224</v>
+      <c r="B16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="19"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>223</v>
+      <c r="B20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="19"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" s="19"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="19"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
@@ -2102,496 +2129,496 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="D33" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="D34" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="D35" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="C36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="D36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="14"/>
+      <c r="D39" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="C36" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="15"/>
-      <c r="D38" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="15"/>
-      <c r="D39" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="15"/>
-      <c r="D40" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="19"/>
+      <c r="D49" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="19"/>
+      <c r="D50" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>239</v>
+      <c r="B52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>238</v>
+      <c r="A53" s="33"/>
+      <c r="B53" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>237</v>
+      <c r="A54" s="33"/>
+      <c r="B54" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>236</v>
+      <c r="A55" s="33"/>
+      <c r="B55" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>235</v>
+      <c r="A56" s="33"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>234</v>
+      <c r="A57" s="33"/>
+      <c r="B57" s="18"/>
+      <c r="D57" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>233</v>
+      <c r="A58" s="33"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>232</v>
+      <c r="A59" s="33"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>231</v>
+      <c r="A60" s="33"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19" t="s">
-        <v>230</v>
+      <c r="A61" s="33"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,82 +2633,82 @@
       <c r="A63" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>240</v>
+      <c r="B63" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
-      <c r="B64" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>241</v>
+      <c r="B64" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
-      <c r="B65" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>246</v>
+      <c r="B65" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
-      <c r="B66" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>245</v>
+      <c r="B66" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
-      <c r="B67" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>244</v>
+      <c r="B67" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>243</v>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>242</v>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,65 +2723,65 @@
       <c r="A71" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>248</v>
+      <c r="B71" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
-      <c r="B72" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>247</v>
+      <c r="B72" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
-      <c r="B73" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="19"/>
+      <c r="B73" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
-      <c r="B74" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="19"/>
+      <c r="B74" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="19"/>
+      <c r="B75" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
@@ -2769,60 +2796,60 @@
         <v>0</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>249</v>
+      <c r="C78" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>250</v>
+      <c r="C79" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>251</v>
+      <c r="C80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>252</v>
+      <c r="C81" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>253</v>
+      <c r="C82" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="19"/>
+      <c r="C83" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
@@ -2836,131 +2863,131 @@
       <c r="A85" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>261</v>
+      <c r="B85" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
-      <c r="B86" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>260</v>
+      <c r="B86" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
-      <c r="B87" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>259</v>
+      <c r="B87" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
-      <c r="B88" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>258</v>
+      <c r="B88" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
-      <c r="B89" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>257</v>
+      <c r="B89" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
-      <c r="C90" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>256</v>
+      <c r="C90" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="18"/>
+      <c r="C91" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="19" t="s">
-        <v>255</v>
+      <c r="D91" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>254</v>
+      <c r="D92" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19" t="s">
-        <v>262</v>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19" t="s">
-        <v>263</v>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19" t="s">
-        <v>264</v>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19" t="s">
-        <v>265</v>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="23" t="s">
-        <v>266</v>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,42 +3003,42 @@
         <v>37</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>267</v>
+      <c r="D99" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
-      <c r="B100" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="21" t="s">
+      <c r="B100" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="20" t="s">
-        <v>268</v>
+      <c r="D100" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>269</v>
+      <c r="D101" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="9"/>
-      <c r="D102" s="20" t="s">
-        <v>270</v>
+      <c r="D102" s="19" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3023,23 +3050,23 @@
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="8"/>
@@ -3053,93 +3080,93 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>271</v>
+      <c r="D107" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="21" t="s">
-        <v>272</v>
+      <c r="D108" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="21" t="s">
-        <v>275</v>
+      <c r="D109" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="21" t="s">
-        <v>274</v>
+      <c r="D110" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="21" t="s">
-        <v>273</v>
+      <c r="D111" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="21" t="s">
-        <v>276</v>
+      <c r="D112" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="21" t="s">
-        <v>277</v>
+      <c r="D113" s="25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="21" t="s">
-        <v>278</v>
+      <c r="D114" s="25" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="21" t="s">
-        <v>279</v>
+      <c r="D115" s="25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,159 +3178,159 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C117" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="21" t="s">
-        <v>280</v>
+      <c r="D117" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
-      <c r="B118" s="24" t="s">
-        <v>88</v>
+      <c r="A118" s="29"/>
+      <c r="B118" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C118" s="8"/>
-      <c r="D118" s="21" t="s">
-        <v>281</v>
+      <c r="D118" s="25" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
-      <c r="B119" s="21" t="s">
-        <v>89</v>
+      <c r="A119" s="29"/>
+      <c r="B119" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="C119" s="8"/>
-      <c r="D119" s="12" t="s">
-        <v>282</v>
+      <c r="D119" s="20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
-      <c r="B120" s="21" t="s">
-        <v>90</v>
+      <c r="A120" s="29"/>
+      <c r="B120" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="C120" s="8"/>
-      <c r="D120" s="12" t="s">
-        <v>283</v>
+      <c r="D120" s="20" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="12" t="s">
-        <v>284</v>
+      <c r="D121" s="20" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="12" t="s">
-        <v>285</v>
+      <c r="D122" s="20" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="12" t="s">
-        <v>286</v>
+      <c r="D123" s="20" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="12" t="s">
-        <v>287</v>
+      <c r="D124" s="20" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="12" t="s">
-        <v>288</v>
+      <c r="D125" s="20" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="12" t="s">
-        <v>289</v>
+      <c r="D126" s="20" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="12" t="s">
-        <v>290</v>
+      <c r="D127" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="12" t="s">
-        <v>291</v>
+      <c r="D128" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="12" t="s">
-        <v>292</v>
+      <c r="D129" s="20" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="12" t="s">
-        <v>293</v>
+      <c r="D130" s="20" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="12" t="s">
-        <v>294</v>
+      <c r="D131" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="12" t="s">
-        <v>295</v>
+      <c r="D132" s="20" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="12" t="s">
-        <v>296</v>
+      <c r="D133" s="20" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="12" t="s">
-        <v>297</v>
+      <c r="D134" s="20" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,156 +3345,169 @@
       <c r="A136" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B136" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="21" t="s">
+      <c r="B136" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D136" s="13"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B138" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" s="23"/>
+      <c r="B139" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C140" s="23"/>
+      <c r="B140" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>300</v>
+      </c>
       <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C141" s="23"/>
+      <c r="B141" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="23"/>
+      <c r="B142" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="23"/>
+      <c r="B143" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>299</v>
+      </c>
       <c r="D143" s="8"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
+      <c r="A144" s="30"/>
+      <c r="B144" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B145" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="30"/>
-      <c r="B146" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
-      <c r="B150" s="8"/>
+      <c r="B150" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="C150" s="8"/>
-      <c r="D150" s="12" t="s">
-        <v>303</v>
+      <c r="D150" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="30"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="20" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A117:A134"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3475,6 +3515,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A117:A134"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C2DE8-8D47-465E-B962-A7E4C42A2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08DAE83-9959-4164-AC5C-6B8A943EB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Quellcode" sheetId="1" r:id="rId1"/>
@@ -282,21 +282,6 @@
     <t>Übungsaufgaben (exercises.java)</t>
   </si>
   <si>
-    <t>Exceptions01</t>
-  </si>
-  <si>
-    <t>Exceptions02</t>
-  </si>
-  <si>
-    <t>Exceptions03</t>
-  </si>
-  <si>
-    <t>Comparators01</t>
-  </si>
-  <si>
-    <t>Comparators02</t>
-  </si>
-  <si>
     <t>Generische Programmierung</t>
   </si>
   <si>
@@ -1189,6 +1174,21 @@
   </si>
   <si>
     <t>Serialization01</t>
+  </si>
+  <si>
+    <t>Comparators01.java, coordinate.v1.*</t>
+  </si>
+  <si>
+    <t>Comparators02.java, coordinate.v1.*</t>
+  </si>
+  <si>
+    <t>Exceptions01.java, vehicle.v7.*</t>
+  </si>
+  <si>
+    <t>Exceptions02.java, barrel.v1.*</t>
+  </si>
+  <si>
+    <t>Exceptions03.java, company.v2.*</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1404,16 +1404,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,6 +1417,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,24 +1829,24 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104:A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="41.5703125" style="2"/>
+    <col min="3" max="3" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="41.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1863,35 +1866,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>30</v>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1899,34 +1902,34 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>31</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1934,83 +1937,83 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>32</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
       <c r="B10" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
       <c r="B11" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
       <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
       <c r="B13" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
       <c r="B14" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="6"/>
@@ -2018,49 +2021,49 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>33</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
       <c r="B17" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
       <c r="B18" s="18"/>
       <c r="C18" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -2068,59 +2071,59 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>34</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
       <c r="B21" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2128,339 +2131,339 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
       <c r="B26" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
       <c r="B28" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="14"/>
       <c r="C30" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
       <c r="C36" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
       <c r="B37" s="14"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="14"/>
       <c r="D38" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
       <c r="B39" s="14"/>
       <c r="D39" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="14"/>
       <c r="D40" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
       <c r="B41" s="14"/>
       <c r="C41" s="3"/>
       <c r="D41" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
       <c r="B42" s="14"/>
       <c r="C42" s="3"/>
       <c r="D42" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
       <c r="B43" s="14"/>
       <c r="C43" s="3"/>
       <c r="D43" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
       <c r="D44" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
       <c r="B45" s="14"/>
       <c r="C45" s="3"/>
       <c r="D45" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="32"/>
       <c r="B46" s="14"/>
       <c r="C46" s="3"/>
       <c r="D46" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
       <c r="B47" s="14"/>
       <c r="C47" s="3"/>
       <c r="D47" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
       <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
       <c r="B49" s="14"/>
       <c r="C49" s="3"/>
       <c r="D49" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
       <c r="B50" s="14"/>
       <c r="C50" s="3"/>
       <c r="D50" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="16"/>
       <c r="C51" s="6"/>
@@ -2468,160 +2471,160 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>35</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
       <c r="B53" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
       <c r="B54" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
       <c r="B55" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
       <c r="B56" s="14"/>
       <c r="C56" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
       <c r="B57" s="18"/>
       <c r="D57" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
       <c r="B58" s="14"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="30"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="30"/>
       <c r="B61" s="14"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2629,89 +2632,89 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="33"/>
+      <c r="B64" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="33"/>
+      <c r="B65" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="33"/>
+      <c r="B66" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="D67" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="33"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2719,71 +2722,71 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
       <c r="B72" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="33"/>
       <c r="B73" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D73" s="18"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
       <c r="B74" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D74" s="18"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="33"/>
       <c r="B75" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D75" s="18"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="33"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D76" s="18"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2791,67 +2794,67 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="33"/>
       <c r="B79" s="9"/>
       <c r="C79" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="33"/>
       <c r="B80" s="9"/>
       <c r="C80" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="33"/>
       <c r="B81" s="9"/>
       <c r="C81" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="33"/>
       <c r="B82" s="9"/>
       <c r="C82" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="33"/>
       <c r="B83" s="9"/>
       <c r="C83" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D83" s="18"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2859,138 +2862,138 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>36</v>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C85" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="33"/>
+      <c r="B86" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="33"/>
+      <c r="B87" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="33"/>
+      <c r="B88" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="33"/>
+      <c r="B89" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="33"/>
+      <c r="C90" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="C90" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="D90" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="33"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="20" t="s">
-        <v>13</v>
+      <c r="C91" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="33"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="20" t="s">
-        <v>14</v>
+      <c r="C92" s="28" t="s">
+        <v>309</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="33"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="33"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="33"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="33"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="33"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2998,50 +3001,50 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>37</v>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="33"/>
       <c r="B100" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="33"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="20" t="s">
-        <v>12</v>
+      <c r="C101" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="33"/>
       <c r="B102" s="9"/>
       <c r="D102" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3049,29 +3052,29 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
-        <v>15</v>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
       <c r="B105" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3079,97 +3082,97 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
-        <v>18</v>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="35"/>
       <c r="B108" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="35"/>
       <c r="B109" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="35"/>
       <c r="B110" s="9"/>
       <c r="C110" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
       <c r="B111" s="9"/>
       <c r="C111" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="35"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="35"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="35"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3177,163 +3180,163 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>24</v>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="35"/>
       <c r="B118" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
       <c r="B119" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="35"/>
       <c r="B120" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="35"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="35"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="35"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="35"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="35"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="35"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="35"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="35"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="35"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="35"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="35"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="35"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="35"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="35"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3341,29 +3344,29 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D136" s="12"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="27"/>
       <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="26"/>
       <c r="F137" s="26"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3371,66 +3374,66 @@
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
-        <v>28</v>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="B139" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="33"/>
+      <c r="B140" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="33"/>
+      <c r="B141" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="33"/>
+      <c r="B142" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+      <c r="B143" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="33"/>
+      <c r="B144" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="30"/>
-      <c r="B141" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="30"/>
-      <c r="B142" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="30"/>
-      <c r="B143" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
-      <c r="B144" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -3438,76 +3441,86 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>29</v>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="30"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="33"/>
       <c r="B147" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="30"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="33"/>
       <c r="B148" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
       <c r="B149" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="30"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="33"/>
       <c r="B150" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="30"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="33"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A117:A134"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3515,16 +3528,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A117:A134"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08DAE83-9959-4164-AC5C-6B8A943EB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698F7A8-DF27-4AB9-8798-D3E8B54EF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
@@ -285,30 +285,9 @@
     <t>Generische Programmierung</t>
   </si>
   <si>
-    <t>JavaGenerics01</t>
-  </si>
-  <si>
-    <t>Variance01</t>
-  </si>
-  <si>
     <t>Innere Klassen (Inner Classes)</t>
   </si>
   <si>
-    <t>MemberClasses01</t>
-  </si>
-  <si>
-    <t>MemberClasses02</t>
-  </si>
-  <si>
-    <t>LocalClasses01</t>
-  </si>
-  <si>
-    <t>AnonymousClasses01</t>
-  </si>
-  <si>
-    <t>LambdaExpressions01</t>
-  </si>
-  <si>
     <t>Die Java Stream API</t>
   </si>
   <si>
@@ -1189,6 +1168,27 @@
   </si>
   <si>
     <t>Exceptions03.java, company.v2.*</t>
+  </si>
+  <si>
+    <t>JavaGenerics01.java, crate.v1.*</t>
+  </si>
+  <si>
+    <t>Variance01.java, crate.v2.*</t>
+  </si>
+  <si>
+    <t>MemberClasses01.java, house.v1.*</t>
+  </si>
+  <si>
+    <t>MemberClasses02.java, company.v3.*</t>
+  </si>
+  <si>
+    <t>LocalClasses01.java, coordinate.v1.*</t>
+  </si>
+  <si>
+    <t>AnonymousClasses01.java, coordinate.v1.*</t>
+  </si>
+  <si>
+    <t>LambdaExpressions01.java, coordinate.v1.*</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1407,6 +1407,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1417,18 +1432,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,10 +1832,10 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104:A105"/>
+      <selection pane="bottomRight" activeCell="A117" sqref="A117:A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1867,19 +1870,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>25</v>
+      <c r="A2" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="12"/>
@@ -1887,7 +1890,7 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="12"/>
@@ -1903,27 +1906,27 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" s="18"/>
       <c r="E7" s="18"/>
@@ -1938,65 +1941,65 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2004,9 +2007,9 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -2022,42 +2025,42 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>28</v>
+      <c r="A16" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="18"/>
       <c r="C18" s="21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -2072,54 +2075,54 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>29</v>
+      <c r="A20" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F23" s="18"/>
     </row>
@@ -2132,333 +2135,333 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="14"/>
       <c r="C30" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
+      <c r="A36" s="37"/>
       <c r="C36" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="14"/>
       <c r="C37" s="22"/>
       <c r="D37" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="14"/>
       <c r="D38" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="14"/>
       <c r="D39" s="18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="14"/>
       <c r="D40" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="14"/>
       <c r="C41" s="3"/>
       <c r="D41" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="14"/>
       <c r="C42" s="3"/>
       <c r="D42" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="14"/>
       <c r="C43" s="3"/>
       <c r="D43" s="18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
       <c r="D44" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="14"/>
       <c r="C45" s="3"/>
       <c r="D45" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="14"/>
       <c r="C46" s="3"/>
       <c r="D46" s="18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="14"/>
       <c r="C47" s="3"/>
       <c r="D47" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="14"/>
       <c r="C49" s="3"/>
       <c r="D49" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="14"/>
       <c r="C50" s="3"/>
       <c r="D50" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -2472,156 +2475,156 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>30</v>
+      <c r="A52" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="14"/>
       <c r="C56" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="18"/>
       <c r="D57" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="14"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="35"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="14"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2633,85 +2636,85 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,66 +2726,66 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="33"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="33"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="33"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D76" s="18"/>
     </row>
@@ -2795,62 +2798,62 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="33"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="9"/>
       <c r="C79" s="18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="9"/>
       <c r="C80" s="18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="9"/>
       <c r="C81" s="18" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="9"/>
       <c r="C82" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="9"/>
       <c r="C83" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D83" s="18"/>
     </row>
@@ -2863,134 +2866,134 @@
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
-        <v>31</v>
+      <c r="A85" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="C90" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="18"/>
       <c r="C91" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="18"/>
       <c r="C92" s="28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="33"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="33"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,46 +3005,46 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>32</v>
+      <c r="A99" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="33"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="9"/>
       <c r="C101" s="28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="33"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="9"/>
       <c r="D102" s="19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3053,24 +3056,24 @@
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>11</v>
+        <v>64</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>306</v>
       </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="36"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="D105" s="8"/>
     </row>
@@ -3083,93 +3086,93 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="34" t="s">
-        <v>13</v>
+      <c r="A107" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>308</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="35"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>309</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="35"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="35"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="20" t="s">
-        <v>17</v>
+      <c r="C110" s="29" t="s">
+        <v>311</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="35"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="20" t="s">
-        <v>18</v>
+      <c r="C111" s="29" t="s">
+        <v>312</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="25" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="35"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="35"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="25" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3181,159 +3184,159 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="34" t="s">
-        <v>19</v>
+      <c r="A117" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="35"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="25" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="35"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="35"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="35"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="35"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="35"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="35"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="35"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="35"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="35"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="35"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="35"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="35"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="35"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="35"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,13 +3349,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3360,7 +3363,7 @@
       <c r="A137" s="27"/>
       <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="26"/>
@@ -3375,61 +3378,61 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="33" t="s">
-        <v>23</v>
+      <c r="A139" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="33"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C140" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="32"/>
+      <c r="B142" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="32"/>
+      <c r="B143" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="33"/>
-      <c r="B141" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C141" s="20" t="s">
+      <c r="C143" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="32"/>
+      <c r="B144" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="33"/>
-      <c r="B142" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
-      <c r="B143" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="33"/>
-      <c r="B144" s="20" t="s">
-        <v>303</v>
       </c>
       <c r="D144" s="8"/>
     </row>
@@ -3442,85 +3445,75 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="33" t="s">
-        <v>24</v>
+      <c r="A146" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="33"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="33"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="20" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="33"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="33"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="33"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A117:A134"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3528,6 +3521,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A117:A134"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A146:A151"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698F7A8-DF27-4AB9-8798-D3E8B54EF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D7F31-F0EB-4FD7-8446-12227B81F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Quellcode" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     ohne java.nio.file.Files</t>
       </text>
     </comment>
-    <comment ref="D146" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+    <comment ref="D145" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +229,7 @@
     distance(String, String)</t>
       </text>
     </comment>
-    <comment ref="D147" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+    <comment ref="D146" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +237,7 @@
     writeZielcode(String, File)</t>
       </text>
     </comment>
-    <comment ref="D148" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+    <comment ref="D147" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Darstellung von Klassen und Programmabläufen</t>
   </si>
@@ -1083,12 +1083,6 @@
     <t>EventHandling01</t>
   </si>
   <si>
-    <t>JavaStreamAPI03</t>
-  </si>
-  <si>
-    <t>JavaStreamAPI04</t>
-  </si>
-  <si>
     <t>ExerciseIOStreams132</t>
   </si>
   <si>
@@ -1122,9 +1116,6 @@
     <t>EventHandling03</t>
   </si>
   <si>
-    <t>UnitTests02</t>
-  </si>
-  <si>
     <t>JavaFX01</t>
   </si>
   <si>
@@ -1189,6 +1180,24 @@
   </si>
   <si>
     <t>LambdaExpressions01.java, coordinate.v1.*</t>
+  </si>
+  <si>
+    <t>JavaStreamAPI03.java, helpers.*</t>
+  </si>
+  <si>
+    <t>JavaStreamAPI04.java</t>
+  </si>
+  <si>
+    <t>JavaStreamAPI05.java, helpers.*</t>
+  </si>
+  <si>
+    <t>Optional01</t>
+  </si>
+  <si>
+    <t>Maps01</t>
+  </si>
+  <si>
+    <t>InfiniteStreams01</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1348,9 +1357,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,12 +1404,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1413,13 +1413,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,6 +1426,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,13 +1821,13 @@
   <threadedComment ref="D99" dT="2022-02-18T06:25:58.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{329EFAD7-6F17-41FB-8809-9C50FB701B6A}">
     <text>ohne java.nio.file.Files</text>
   </threadedComment>
-  <threadedComment ref="D146" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+  <threadedComment ref="D145" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
     <text>distance(String, String)</text>
   </threadedComment>
-  <threadedComment ref="D147" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+  <threadedComment ref="D146" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
     <text>writeZielcode(String, File)</text>
   </threadedComment>
-  <threadedComment ref="D148" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+  <threadedComment ref="D147" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
     <text>convertFileToLowerCase(String, String)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1829,27 +1835,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D9D064-B462-4559-9DAC-1D03D3C957D4}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117:A134"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="41.5546875" style="2"/>
+    <col min="3" max="3" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="41.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1869,765 +1875,765 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="14" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="21" t="s">
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="18" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="C36" s="19" t="s">
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="C36" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="18" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="14"/>
-      <c r="D38" s="18" t="s">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="13"/>
+      <c r="D38" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="14"/>
-      <c r="D39" s="18" t="s">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="13"/>
+      <c r="D39" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="14"/>
-      <c r="D40" s="18" t="s">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="13"/>
+      <c r="D40" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="14"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="14"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="14"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="14"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="14"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="14"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="18"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="14"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="14"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="14" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
+      <c r="B53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="14" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="30"/>
+      <c r="B55" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="21" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="30"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="18"/>
-      <c r="D57" s="18" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="17"/>
+      <c r="D57" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="30"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2635,89 +2641,89 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="22" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="22" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="22" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="22" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2725,71 +2731,71 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="18" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="18"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="22" t="s">
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="18"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
-      <c r="B75" s="18" t="s">
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
+      <c r="B75" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="18"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18" t="s">
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="18"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2797,67 +2803,67 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
       <c r="B83" s="9"/>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="18"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2865,138 +2871,138 @@
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="18" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
-      <c r="B87" s="18" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
-      <c r="C90" s="22" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="C90" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="18" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D92" s="18" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="22" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3004,50 +3010,50 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C99" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" s="19" t="s">
+      <c r="C99" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="22" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D100" s="19" t="s">
+      <c r="C100" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" s="19" t="s">
+      <c r="C101" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
       <c r="B102" s="9"/>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3055,127 +3061,127 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="30" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>306</v>
+      <c r="C104" s="26" t="s">
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="33"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
       <c r="B105" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="29" t="s">
-        <v>307</v>
+      <c r="C105" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="25" t="s">
+      <c r="C107" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="24" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
       <c r="B108" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="25" t="s">
+      <c r="C108" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="31"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="35"/>
       <c r="B109" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C109" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="25" t="s">
+      <c r="C109" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="35"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="D110" s="25" t="s">
+      <c r="C110" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="35"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="D111" s="25" t="s">
+      <c r="C111" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="35"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="35"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="35"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="35"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3183,163 +3189,171 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="30" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="24" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
-      <c r="B118" s="23" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="35"/>
+      <c r="B118" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="25" t="s">
+      <c r="C118" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="31"/>
-      <c r="B119" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="20" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="35"/>
+      <c r="B119" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
-      <c r="B120" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="20" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="35"/>
+      <c r="B120" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" s="19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="31"/>
-      <c r="B121" s="8"/>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="35"/>
+      <c r="B121" s="28" t="s">
+        <v>312</v>
+      </c>
       <c r="C121" s="8"/>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="31"/>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="35"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="19" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="35"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="19" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="31"/>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="35"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="31"/>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="35"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="31"/>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="35"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="35"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="35"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="20" t="s">
+      <c r="D128" s="19" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="31"/>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="35"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="35"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="20" t="s">
+      <c r="D130" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="35"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="35"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="35"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="35"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="20" t="s">
+      <c r="D134" s="19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3347,173 +3361,173 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="12"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="27"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="20" t="s">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="33"/>
+      <c r="B139" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="33"/>
+      <c r="B140" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D137" s="12"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="20" t="s">
+      <c r="C140" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="33"/>
+      <c r="B141" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
-      <c r="B140" s="20" t="s">
+      <c r="C141" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="33"/>
+      <c r="B142" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
-      <c r="B141" s="20" t="s">
+      <c r="C142" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="33"/>
+      <c r="B143" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
-      <c r="B142" s="20" t="s">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C145" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
-      <c r="B143" s="20" t="s">
+      <c r="D145" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="33"/>
+      <c r="B146" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="32"/>
-      <c r="B144" s="20" t="s">
+      <c r="D146" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
+      <c r="B147" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" s="20" t="s">
+      <c r="D147" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="33"/>
+      <c r="B148" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
-      <c r="B147" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
-      <c r="B148" s="20" t="s">
+      <c r="D148" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="33"/>
+      <c r="B149" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C148" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="32"/>
-      <c r="B149" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="32"/>
-      <c r="B150" s="20" t="s">
-        <v>285</v>
-      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="33"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="20" t="s">
-        <v>280</v>
+      <c r="D150" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A117:A134"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3521,16 +3535,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A117:A134"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/wwibe121/src/resources/coding_wwibe121.xlsx
+++ b/wwibe121/src/resources/coding_wwibe121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D054906\git\dhbw-java3\wwibe121\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D7F31-F0EB-4FD7-8446-12227B81F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B50EB2-0C06-4C58-B8BC-549EF4B0101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B24EFA1C-6CBC-46F6-BC80-36E21A237EEC}"/>
   </bookViews>
@@ -221,7 +221,7 @@
     ohne java.nio.file.Files</t>
       </text>
     </comment>
-    <comment ref="D145" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+    <comment ref="D147" authorId="20" shapeId="0" xr:uid="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +229,7 @@
     distance(String, String)</t>
       </text>
     </comment>
-    <comment ref="D146" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+    <comment ref="D148" authorId="21" shapeId="0" xr:uid="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +237,7 @@
     writeZielcode(String, File)</t>
       </text>
     </comment>
-    <comment ref="D147" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+    <comment ref="D149" authorId="22" shapeId="0" xr:uid="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Darstellung von Klassen und Programmabläufen</t>
   </si>
@@ -291,15 +291,9 @@
     <t>Die Java Stream API</t>
   </si>
   <si>
-    <t>IntermediateAndTerminalOperations01</t>
-  </si>
-  <si>
     <t>Softwaretests</t>
   </si>
   <si>
-    <t>UnitTests01</t>
-  </si>
-  <si>
     <t>JavaFX-Anwendungen</t>
   </si>
   <si>
@@ -1191,13 +1185,25 @@
     <t>JavaStreamAPI05.java, helpers.*</t>
   </si>
   <si>
-    <t>Optional01</t>
-  </si>
-  <si>
-    <t>Maps01</t>
-  </si>
-  <si>
-    <t>InfiniteStreams01</t>
+    <t>IntermediateAndTerminalOperations01.java, helpers.*</t>
+  </si>
+  <si>
+    <t>Optional01.java, helpers.*</t>
+  </si>
+  <si>
+    <t>Maps01.java, telephonebook.v1.*</t>
+  </si>
+  <si>
+    <t>InfiniteStreams01.java, helpers.*</t>
+  </si>
+  <si>
+    <t>tests.EmployeeTest.java, company.v3.*</t>
+  </si>
+  <si>
+    <t>tests.RentalTest.java, vehicle.v7.*</t>
+  </si>
+  <si>
+    <t>tests.TelephoneBookTest.java, telephonebook.v1.*</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1410,10 +1416,25 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,18 +1447,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,13 +1830,13 @@
   <threadedComment ref="D99" dT="2022-02-18T06:25:58.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{329EFAD7-6F17-41FB-8809-9C50FB701B6A}">
     <text>ohne java.nio.file.Files</text>
   </threadedComment>
-  <threadedComment ref="D145" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
+  <threadedComment ref="D147" dT="2022-05-03T09:14:31.99" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{33B764D5-E707-4791-B09F-5D77E3BC7839}">
     <text>distance(String, String)</text>
   </threadedComment>
-  <threadedComment ref="D146" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
+  <threadedComment ref="D148" dT="2022-05-03T09:16:34.14" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{6399853E-88FE-446B-A09B-91FA6860FFF7}">
     <text>writeZielcode(String, File)</text>
   </threadedComment>
-  <threadedComment ref="D147" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
+  <threadedComment ref="D149" dT="2022-05-03T09:16:54.17" personId="{0C3C9EE2-64AF-4190-B0D9-9CE5FC7A514C}" id="{54072101-36F5-4BDD-8F8C-BAC7183A2C62}">
     <text>convertFileToLowerCase(String, String)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1835,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D9D064-B462-4559-9DAC-1D03D3C957D4}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1848,7 +1857,7 @@
   <cols>
     <col min="1" max="1" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1876,19 +1885,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>18</v>
+      <c r="A2" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="11"/>
@@ -1896,7 +1905,7 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="11"/>
@@ -1912,27 +1921,27 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>19</v>
+      <c r="A6" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="17"/>
       <c r="E7" s="17"/>
@@ -1947,65 +1956,65 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>20</v>
+      <c r="A9" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2013,9 +2022,9 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2031,42 +2040,42 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>21</v>
+      <c r="A16" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="17"/>
       <c r="C18" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2081,54 +2090,54 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>22</v>
+      <c r="A20" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" s="17"/>
     </row>
@@ -2141,333 +2150,333 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="13" t="s">
+      <c r="D27" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="13" t="s">
+      <c r="E28" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="D29" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="13"/>
       <c r="C30" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="37"/>
       <c r="C36" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="13"/>
       <c r="C37" s="21"/>
       <c r="D37" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="13"/>
       <c r="D38" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="13"/>
       <c r="D39" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="13"/>
       <c r="D40" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13"/>
       <c r="C41" s="3"/>
       <c r="D41" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="13"/>
       <c r="C42" s="3"/>
       <c r="D42" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="13"/>
       <c r="C43" s="3"/>
       <c r="D43" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="13"/>
       <c r="C44" s="3"/>
       <c r="D44" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="13"/>
       <c r="C45" s="3"/>
       <c r="D45" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="13"/>
       <c r="C46" s="3"/>
       <c r="D46" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="13"/>
       <c r="C47" s="3"/>
       <c r="D47" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="13"/>
       <c r="C48" s="3"/>
       <c r="D48" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="13"/>
       <c r="C49" s="3"/>
       <c r="D49" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="13"/>
       <c r="C50" s="3"/>
       <c r="D50" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="3"/>
@@ -2481,156 +2490,156 @@
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>23</v>
+      <c r="A52" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D54" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="13" t="s">
+      <c r="E54" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="E55" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="13"/>
       <c r="C56" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="17"/>
       <c r="D57" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="13"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="35"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="35"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="13"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,85 +2651,85 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="21" t="s">
+      <c r="C66" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="D67" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,66 +2741,66 @@
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="32"/>
+      <c r="B74" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="32"/>
+      <c r="B75" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="C75" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D76" s="17"/>
     </row>
@@ -2804,62 +2813,62 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="9"/>
       <c r="C79" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="9"/>
       <c r="C80" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="9"/>
       <c r="C81" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="9"/>
       <c r="C82" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="9"/>
       <c r="C83" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D83" s="17"/>
     </row>
@@ -2872,134 +2881,134 @@
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>24</v>
+      <c r="A85" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="32"/>
+      <c r="B86" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="17" t="s">
+      <c r="D87" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="32"/>
+      <c r="B88" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="17" t="s">
+      <c r="D88" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C89" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="D89" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="C90" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="C90" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="D90" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="17"/>
       <c r="C91" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="17"/>
       <c r="C92" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,46 +3020,46 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>25</v>
+      <c r="A99" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="9"/>
       <c r="C101" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="9"/>
       <c r="D102" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3062,24 +3071,24 @@
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
     </row>
@@ -3092,93 +3101,93 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="31"/>
+      <c r="B108" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="31"/>
+      <c r="B109" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C109" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>307</v>
-      </c>
       <c r="D109" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="9"/>
       <c r="C110" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="9"/>
       <c r="C111" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,167 +3199,167 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="D117" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="31"/>
+      <c r="B118" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="31"/>
+      <c r="B119" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D118" s="24" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="31"/>
+      <c r="B120" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="28" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
+      <c r="B121" s="27" t="s">
         <v>310</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="28" t="s">
-        <v>312</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3362,61 +3371,61 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="31"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="33"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="D138" s="11"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
-      <c r="B139" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" s="19" t="s">
+      <c r="B140" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
-      <c r="B140" s="19" t="s">
-        <v>290</v>
-      </c>
       <c r="C140" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="32"/>
+      <c r="B141" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
-      <c r="B141" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>284</v>
@@ -3424,9 +3433,9 @@
       <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>285</v>
@@ -3434,100 +3443,110 @@
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="32"/>
+      <c r="B145" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="32"/>
+      <c r="B148" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="19" t="s">
+      <c r="D148" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="32"/>
+      <c r="B149" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C149" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D149" s="24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
-      <c r="B146" s="19" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="32"/>
+      <c r="B150" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C150" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D150" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="19" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="32"/>
+      <c r="B151" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
-      <c r="B148" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C148" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D148" s="24" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="19" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="19" t="s">
-        <v>278</v>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="32"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="19" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A117:A134"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A97"/>
-    <mergeCell ref="A99:A102"/>
+  <mergeCells count="18">
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A2:A4"/>
@@ -3535,6 +3554,17 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A25:A50"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A97"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A117:A134"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A136:A138"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
